--- a/postgresql学习/权限/Object_x_Privilege.xlsx
+++ b/postgresql学习/权限/Object_x_Privilege.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwdco\Documents\DBA-Notes\postgresql学习\权限\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03F9C4D-F97C-4346-B258-3D4C7D13D1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4E26FD-3897-4A71-951A-203294066E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12549" xr2:uid="{FA93D356-A811-41C3-8313-F87320F1A6CA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="48">
   <si>
     <t>Database</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,16 +107,127 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>currval()
-nextval()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>创建 schema 和 publication</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>允许连接数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限含义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限catalog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限Function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在 schema 下创建新的 object</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>允许访问schema下的 object</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>允许对所有列执行 SELECT</t>
+  </si>
+  <si>
+    <t>允许对所有列执行 SELECT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>允许对所有列执行 UPDATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE TABLE
+CREATE SEQUENCE
+CREATE VIEW
+CREATE FUNCTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">UPDATE tbl
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT … FROM tbl
+COPY tbl TO file
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUNCATE tbl
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>允许 INSERT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">INSERT INTO tbl
+COPY tbl FROM file
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>允许 DELETE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">DELETE FROM tbl
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>允许 TRUNCATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>允许创建引用该表的外键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">xxx
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>允许在该表上创建触发器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CREATE TRIGGER
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sequence 是单行表，允许对这表执行 SELECT。允许对 sequence 执行 currval 函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT … FROM tbl
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>允许对 sequence 执行 currval() 和 nextval() 函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>允许执行该函数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -124,7 +235,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,6 +269,36 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -168,18 +309,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -202,36 +343,130 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -547,319 +782,603 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBEA1A1A-B2F9-4B79-9666-F580ADC286CD}">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="33.78515625" customWidth="1"/>
-    <col min="3" max="3" width="32.2109375" customWidth="1"/>
-    <col min="4" max="4" width="31.5" customWidth="1"/>
-    <col min="5" max="5" width="38.78515625" customWidth="1"/>
-    <col min="6" max="6" width="40.5703125" customWidth="1"/>
-    <col min="7" max="7" width="35.78515625" customWidth="1"/>
-    <col min="8" max="8" width="30.140625" customWidth="1"/>
-    <col min="9" max="9" width="17.92578125" customWidth="1"/>
-    <col min="10" max="10" width="31.140625" customWidth="1"/>
-    <col min="11" max="11" width="31.2109375" customWidth="1"/>
-    <col min="12" max="12" width="16.28515625" customWidth="1"/>
-    <col min="13" max="13" width="18.92578125" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="13.0703125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="36.5" customWidth="1"/>
+    <col min="4" max="4" width="39" customWidth="1"/>
+    <col min="5" max="5" width="38.35546875" customWidth="1"/>
+    <col min="6" max="6" width="38.78515625" customWidth="1"/>
+    <col min="7" max="7" width="38.42578125" customWidth="1"/>
+    <col min="8" max="8" width="37.28515625" customWidth="1"/>
+    <col min="9" max="9" width="37.5703125" customWidth="1"/>
+    <col min="10" max="10" width="27.2109375" customWidth="1"/>
+    <col min="11" max="11" width="31.140625" customWidth="1"/>
+    <col min="12" max="12" width="31.2109375" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" customWidth="1"/>
+    <col min="14" max="14" width="18.92578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="8"/>
+      <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="N1"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="O1" s="6"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="5" t="s">
+      <c r="B2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3" s="11"/>
+      <c r="B3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+    </row>
+    <row r="5" spans="1:15" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="5"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7" s="11"/>
+      <c r="B7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8" s="11"/>
+      <c r="B8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="1:15" ht="85.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="11"/>
+      <c r="B9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+    </row>
+    <row r="10" spans="1:15" s="20" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A11" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="3"/>
-      <c r="B8" s="5" t="s">
+      <c r="B11" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="1:15" ht="14.6" x14ac:dyDescent="0.35">
+      <c r="A12" s="11"/>
+      <c r="B12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D12" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E12" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F12" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G12" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="H12" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="I12" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A13" s="11"/>
+      <c r="B13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+    </row>
+    <row r="14" spans="1:15" ht="48.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="11"/>
+      <c r="B14" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+    </row>
+    <row r="15" spans="1:15" s="20" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A16" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
-      <c r="B10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-    </row>
-    <row r="11" spans="1:14" ht="56.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+      <c r="B16" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A17" s="11"/>
+      <c r="B17" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A18" s="11"/>
+      <c r="B18" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+    </row>
+    <row r="19" spans="1:14" ht="43.75" x14ac:dyDescent="0.35">
+      <c r="A19" s="11"/>
+      <c r="B19" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+    </row>
+    <row r="20" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="23"/>
+      <c r="B20" s="24"/>
+    </row>
+    <row r="21" spans="1:14" ht="56.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12" s="3"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="5" t="s">
+      <c r="B21" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+    </row>
+    <row r="22" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="11"/>
+      <c r="B22" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+    </row>
+    <row r="23" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="11"/>
+      <c r="B23" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+    </row>
+    <row r="24" spans="1:14" ht="29.15" x14ac:dyDescent="0.35">
+      <c r="A24" s="11"/>
+      <c r="B24" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+    </row>
+    <row r="25" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="23"/>
+      <c r="B25" s="24"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A26" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A14" s="3"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
+      <c r="B26" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A27" s="11"/>
+      <c r="B27" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A28" s="11"/>
+      <c r="B28" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A29" s="11"/>
+      <c r="B29" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A21:A24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
